--- a/Entreprises_Complet2.xlsx
+++ b/Entreprises_Complet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfial\Documents\00_Stage_App\0_kit_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF041322-2EE0-4944-8ADE-AE332C61ED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F71D82-BFB9-4E32-A3FC-DD9463AD5EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Alimentaire</t>
   </si>
@@ -242,27 +242,6 @@
   </si>
   <si>
     <t>Cristal union, Bazancourt</t>
-  </si>
-  <si>
-    <t>Cosmétique</t>
-  </si>
-  <si>
-    <t>Produits cosmétiques</t>
-  </si>
-  <si>
-    <t>Givaudan</t>
-  </si>
-  <si>
-    <t>Pomacle</t>
-  </si>
-  <si>
-    <t>Route de Bazancourt</t>
-  </si>
-  <si>
-    <t>49.34605589439471, 4.16102316839083</t>
-  </si>
-  <si>
-    <t>https://fr.linkedin.com/company/givaudan</t>
   </si>
 </sst>
 </file>
@@ -574,7 +553,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -760,33 +739,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,12 +1086,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CO150"/>
+  <dimension ref="A1:CO149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AD1" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D4"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1413,7 @@
       <c r="AZ2" s="27"/>
       <c r="BA2" s="27"/>
       <c r="BB2" s="9">
-        <f>RANK(BX2,$BX$2:$BX$5)+COUNTIF(BX$2:BX3,BX2)-1</f>
+        <f>RANK(BX2,$BX$2:$BX$4)+COUNTIF(BX$2:BX3,BX2)-1</f>
         <v>1</v>
       </c>
       <c r="BC2" s="45" t="str">
@@ -1469,7 +1421,7 @@
         <v>N° 1 Delpharm Reims</v>
       </c>
       <c r="BD2" s="9">
-        <f>RANK(BY2,$BY$2:$BY$5)+COUNTIF(BY$2:BY3,BY2)-1</f>
+        <f>RANK(BY2,$BY$2:$BY$4)+COUNTIF(BY$2:BY3,BY2)-1</f>
         <v>1</v>
       </c>
       <c r="BE2" s="45" t="str">
@@ -1657,7 +1609,7 @@
       <c r="AZ3" s="49"/>
       <c r="BA3" s="47"/>
       <c r="BB3" s="9">
-        <f>RANK(BX3,$BX$2:$BX$5)+COUNTIF(BX$2:BX3,BX3)-1</f>
+        <f>RANK(BX3,$BX$2:$BX$4)+COUNTIF(BX$2:BX3,BX3)-1</f>
         <v>2</v>
       </c>
       <c r="BC3" s="45" t="str">
@@ -1665,7 +1617,7 @@
         <v>N° 2 Cristal union, Bazancourt</v>
       </c>
       <c r="BD3" s="9">
-        <f>RANK(BY3,$BY$2:$BY$5)+COUNTIF(BY$2:BY3,BY3)-1</f>
+        <f>RANK(BY3,$BY$2:$BY$4)+COUNTIF(BY$2:BY3,BY3)-1</f>
         <v>2</v>
       </c>
       <c r="BE3" s="45" t="str">
@@ -1774,268 +1726,217 @@
       </c>
       <c r="CN3" s="11"/>
     </row>
-    <row r="4" spans="1:93" s="9" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>71</v>
+    <row r="4" spans="1:93" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="17" t="str">
         <f>IF(BF4&lt;&gt;0,";2022_A="&amp;BF4," ")&amp;IF(BG4&lt;&gt;0," ; 2022_i="&amp;BG4," ")&amp;IF(BH4&lt;&gt;0,";2021_A="&amp;BH4," ")&amp;IF(BI4&lt;&gt;0," ; 2021_i="&amp;BI4," ")&amp;IF(BJ4&lt;&gt;0,";2020_A="&amp;BJ4," ")&amp;IF(BK4&lt;&gt;0," ; 2020_i="&amp;BK4," ")&amp;IF(BL4&lt;&gt;0,";2019_A="&amp;BL4," ")&amp;IF(BM4&lt;&gt;0," ; 2019_i="&amp;BM4," ")&amp;IF(BN4&lt;&gt;0,";2018_A="&amp;BN4," ")&amp;IF(BO4&lt;&gt;0," ; 2018_i="&amp;BO4," ")&amp;IF(BP4&lt;&gt;0," ; 2017_A="&amp;BP4," ")&amp;IF(BQ4&lt;&gt;0," ; 2017_i="&amp;BQ4," ")&amp;IF(BR4&lt;&gt;0," ; 2016_A="&amp;BR4," ")&amp;IF(BS4&lt;&gt;0," ; 2016_i="&amp;BS4," ")&amp;IF(BT4&lt;&gt;0," ; 2015_A="&amp;BT4," ")&amp;IF(BU4&lt;&gt;0," ; 2015_i="&amp;BU4," ")&amp;IF(BV4&lt;&gt;0," ; 2014_A="&amp;BV4," ")&amp;IF(BW4&lt;&gt;0," ; 2014_i="&amp;BW4," ")</f>
-        <v xml:space="preserve">    ; 2021_i=2              </v>
-      </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP4" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ4" s="70">
-        <v>51110</v>
-      </c>
-      <c r="AR4" s="71">
-        <v>33326888410</v>
-      </c>
-      <c r="AS4" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT4" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU4" s="73"/>
-      <c r="AW4" s="48"/>
-      <c r="AX4" s="48"/>
-      <c r="AY4" s="74"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="74"/>
-      <c r="BC4" s="45"/>
-      <c r="BE4" s="45"/>
-      <c r="BF4" s="65"/>
-      <c r="BG4" s="65"/>
-      <c r="BH4" s="65"/>
-      <c r="BI4" s="65">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="65"/>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="66"/>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="66"/>
-      <c r="BT4" s="66"/>
-      <c r="BU4" s="66"/>
-      <c r="BV4" s="66"/>
-      <c r="BW4" s="66"/>
-      <c r="CN4" s="11"/>
-    </row>
-    <row r="5" spans="1:93" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="17" t="str">
-        <f>IF(BF5&lt;&gt;0,";2022_A="&amp;BF5," ")&amp;IF(BG5&lt;&gt;0," ; 2022_i="&amp;BG5," ")&amp;IF(BH5&lt;&gt;0,";2021_A="&amp;BH5," ")&amp;IF(BI5&lt;&gt;0," ; 2021_i="&amp;BI5," ")&amp;IF(BJ5&lt;&gt;0,";2020_A="&amp;BJ5," ")&amp;IF(BK5&lt;&gt;0," ; 2020_i="&amp;BK5," ")&amp;IF(BL5&lt;&gt;0,";2019_A="&amp;BL5," ")&amp;IF(BM5&lt;&gt;0," ; 2019_i="&amp;BM5," ")&amp;IF(BN5&lt;&gt;0,";2018_A="&amp;BN5," ")&amp;IF(BO5&lt;&gt;0," ; 2018_i="&amp;BO5," ")&amp;IF(BP5&lt;&gt;0," ; 2017_A="&amp;BP5," ")&amp;IF(BQ5&lt;&gt;0," ; 2017_i="&amp;BQ5," ")&amp;IF(BR5&lt;&gt;0," ; 2016_A="&amp;BR5," ")&amp;IF(BS5&lt;&gt;0," ; 2016_i="&amp;BS5," ")&amp;IF(BT5&lt;&gt;0," ; 2015_A="&amp;BT5," ")&amp;IF(BU5&lt;&gt;0," ; 2015_i="&amp;BU5," ")&amp;IF(BV5&lt;&gt;0," ; 2014_A="&amp;BV5," ")&amp;IF(BW5&lt;&gt;0," ; 2014_i="&amp;BW5," ")</f>
         <v xml:space="preserve">                  </v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="19"/>
-      <c r="AO5" s="53" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="AP5" s="53" t="s">
+      <c r="AP4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AQ5" s="61">
+      <c r="AQ4" s="61">
         <v>51100</v>
       </c>
-      <c r="AR5" s="62" t="s">
+      <c r="AR4" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" s="63" t="s">
+      <c r="AS4" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="AT5" s="64" t="s">
+      <c r="AT4" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="25"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="25"/>
-      <c r="AZ5" s="25"/>
-      <c r="BA5" s="25"/>
-      <c r="BB5" s="9">
-        <f>RANK(BX5,$BX$2:$BX$5)+COUNTIF(BX$2:BX6,BX5)-1</f>
+      <c r="AU4" s="20"/>
+      <c r="AV4" s="21"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="9">
+        <f>RANK(BX4,$BX$2:$BX$4)+COUNTIF(BX$2:BX5,BX4)-1</f>
         <v>3</v>
       </c>
-      <c r="BC5" s="12" t="str">
-        <f>"N° "&amp;BB5&amp;" "&amp;C5</f>
+      <c r="BC4" s="12" t="str">
+        <f>"N° "&amp;BB4&amp;" "&amp;C4</f>
         <v>N° 3 Lycée Technologique Hugues Libergier</v>
       </c>
-      <c r="BD5" s="9">
-        <f>RANK(BY5,$BY$2:$BY$5)+COUNTIF(BY$2:BY6,BY5)-1</f>
+      <c r="BD4" s="9">
+        <f>RANK(BY4,$BY$2:$BY$4)+COUNTIF(BY$2:BY5,BY4)-1</f>
         <v>3</v>
       </c>
-      <c r="BE5" s="12" t="str">
-        <f>"N° "&amp;BD5&amp;" "&amp;C5</f>
+      <c r="BE4" s="12" t="str">
+        <f>"N° "&amp;BD4&amp;" "&amp;C4</f>
         <v>N° 3 Lycée Technologique Hugues Libergier</v>
       </c>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BX5" s="9">
-        <f>((BF5+BG5)*9)+((BH5+BI5)*8)+((BJ5+BK5)*7)+((BL5+BM5)*6)+((BN5+BO5)*5)+((BP5+BQ5)*4)+((BR5+BS5)*3)+((BT5+BU5)*2)+((BV5+BW5)*1)</f>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BX4" s="9">
+        <f>((BF4+BG4)*9)+((BH4+BI4)*8)+((BJ4+BK4)*7)+((BL4+BM4)*6)+((BN4+BO4)*5)+((BP4+BQ4)*4)+((BR4+BS4)*3)+((BT4+BU4)*2)+((BV4+BW4)*1)</f>
         <v>0</v>
       </c>
-      <c r="BY5" s="9">
-        <f>((BG5)*9)+((BI5)*8)+((BK5)*7)+((BM5)*6)+((BO5)*5)+((BQ5)*4)+((BS5)*3)+((BU5)*2)+((BW5)*1)</f>
+      <c r="BY4" s="9">
+        <f>((BG4)*9)+((BI4)*8)+((BK4)*7)+((BM4)*6)+((BO4)*5)+((BQ4)*4)+((BS4)*3)+((BU4)*2)+((BW4)*1)</f>
         <v>0</v>
       </c>
-      <c r="BZ5" s="1">
-        <f>BJ5</f>
+      <c r="BZ4" s="1">
+        <f>BJ4</f>
         <v>0</v>
       </c>
-      <c r="CA5" s="1">
-        <f>BL5</f>
+      <c r="CA4" s="1">
+        <f>BL4</f>
         <v>0</v>
       </c>
-      <c r="CB5" s="1">
-        <f>BN5</f>
+      <c r="CB4" s="1">
+        <f>BN4</f>
         <v>0</v>
       </c>
-      <c r="CC5" s="1">
-        <f>BP5</f>
+      <c r="CC4" s="1">
+        <f>BP4</f>
         <v>0</v>
       </c>
-      <c r="CD5" s="1">
-        <f>BR5</f>
+      <c r="CD4" s="1">
+        <f>BR4</f>
         <v>0</v>
       </c>
-      <c r="CE5" s="1">
-        <f>BT5</f>
+      <c r="CE4" s="1">
+        <f>BT4</f>
         <v>0</v>
       </c>
-      <c r="CF5" s="1">
-        <f>BV5</f>
+      <c r="CF4" s="1">
+        <f>BV4</f>
         <v>0</v>
       </c>
-      <c r="CG5" s="1">
-        <f>BK5</f>
+      <c r="CG4" s="1">
+        <f>BK4</f>
         <v>0</v>
       </c>
-      <c r="CH5" s="1">
-        <f>BM5</f>
+      <c r="CH4" s="1">
+        <f>BM4</f>
         <v>0</v>
       </c>
-      <c r="CI5" s="1">
-        <f>BO5</f>
+      <c r="CI4" s="1">
+        <f>BO4</f>
         <v>0</v>
       </c>
-      <c r="CJ5" s="1">
-        <f>BQ5</f>
+      <c r="CJ4" s="1">
+        <f>BQ4</f>
         <v>0</v>
       </c>
-      <c r="CK5" s="1">
-        <f>BS5</f>
+      <c r="CK4" s="1">
+        <f>BS4</f>
         <v>0</v>
       </c>
-      <c r="CL5" s="1">
-        <f>BU5</f>
+      <c r="CL4" s="1">
+        <f>BU4</f>
         <v>0</v>
       </c>
-      <c r="CM5" s="1">
-        <f>BW5</f>
+      <c r="CM4" s="1">
+        <f>BW4</f>
         <v>0</v>
       </c>
-      <c r="CO5" s="16"/>
+      <c r="CO4" s="16"/>
+    </row>
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6"/>
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
     </row>
     <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="D6" s="25"/>
@@ -8805,53 +8706,6 @@
       <c r="CL149" s="6"/>
       <c r="CM149" s="6"/>
     </row>
-    <row r="150" spans="4:91" x14ac:dyDescent="0.25">
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="25"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-      <c r="T150" s="6"/>
-      <c r="BB150" s="6"/>
-      <c r="BC150" s="6"/>
-      <c r="BD150" s="6"/>
-      <c r="BE150" s="6"/>
-      <c r="BF150" s="6"/>
-      <c r="BG150" s="6"/>
-      <c r="BH150" s="6"/>
-      <c r="BI150" s="6"/>
-      <c r="BJ150" s="6"/>
-      <c r="BK150" s="6"/>
-      <c r="BL150" s="6"/>
-      <c r="BM150" s="6"/>
-      <c r="BX150" s="6"/>
-      <c r="BY150" s="6"/>
-      <c r="BZ150" s="6"/>
-      <c r="CA150" s="6"/>
-      <c r="CB150" s="6"/>
-      <c r="CC150" s="6"/>
-      <c r="CD150" s="6"/>
-      <c r="CE150" s="6"/>
-      <c r="CF150" s="6"/>
-      <c r="CG150" s="6"/>
-      <c r="CH150" s="6"/>
-      <c r="CI150" s="6"/>
-      <c r="CJ150" s="6"/>
-      <c r="CK150" s="6"/>
-      <c r="CL150" s="6"/>
-      <c r="CM150" s="6"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:CN3" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CN4">
@@ -8862,7 +8716,7 @@
     <sortCondition ref="AQ3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="AS5" r:id="rId1" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
+    <hyperlink ref="AS4" r:id="rId1" xr:uid="{CE6BB279-B22D-4886-BA43-EBC7C34ABC98}"/>
     <hyperlink ref="AS2" r:id="rId2" xr:uid="{AD65CD47-7EFA-468A-823F-E339A9B6D149}"/>
     <hyperlink ref="AS3" r:id="rId3" xr:uid="{E7287CB5-76AD-4369-BEC2-F6381C7644FC}"/>
   </hyperlinks>
